--- a/ehcore/src/main/java/com/everhomes/pmtask/pmtask.xlsx
+++ b/ehcore/src/main/java/com/everhomes/pmtask/pmtask.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -467,7 +466,7 @@
   <dimension ref="B1:K6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
